--- a/spreadsheets/slide_base.xlsx
+++ b/spreadsheets/slide_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="slide_base" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,11 +18,14 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">survival_data!$A$1:$S$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">slide_base!$A$1:$V$1297</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">slide_base!$A$1:$V$1297</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">slide_base!$T$1:$T$1297</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">slide_base!$A$1:$V$1297</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">slide_base!$T$1:$T$1297</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">survival_data!$A$1:$S$71</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">survival_data!$A$1:$S$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">survival_data!$A$1:$S$71</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">full_image_list!$A$1:$B$180</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">full_image_list!$A$1:$B$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">full_image_list!$A$1:$B$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4172,8 +4175,8 @@
   </sheetPr>
   <dimension ref="A1:V1297"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4184,20 +4187,20 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1376518218623"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -60262,8 +60265,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="9" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="9" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="9" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="9" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="9" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="9" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="9" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="9" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -64756,9 +64759,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.7408906882591"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
